--- a/Data/fp_survey_2_15_13.xlsx
+++ b/Data/fp_survey_2_15_13.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="11340" windowHeight="6795"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="25360" windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10618" uniqueCount="1159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10843" uniqueCount="1180">
   <si>
     <t>Soup kitchen/hot meals</t>
   </si>
@@ -3491,6 +3496,69 @@
   </si>
   <si>
     <t>IP_ADDRESS</t>
+  </si>
+  <si>
+    <t>75-125</t>
+  </si>
+  <si>
+    <t>55-65/month</t>
+  </si>
+  <si>
+    <t>bakeries, whole foods</t>
+  </si>
+  <si>
+    <t>emaxuco@sbcglobal.net</t>
+  </si>
+  <si>
+    <t>less than 200/month</t>
+  </si>
+  <si>
+    <t>pdworkman@juno.com</t>
+  </si>
+  <si>
+    <t>30-35 hours/month</t>
+  </si>
+  <si>
+    <t>250-275</t>
+  </si>
+  <si>
+    <t>personal care items, baby items</t>
+  </si>
+  <si>
+    <t>275/month</t>
+  </si>
+  <si>
+    <t>gospel-411@sbcglobal.net</t>
+  </si>
+  <si>
+    <t>120 food baskets in a month</t>
+  </si>
+  <si>
+    <t>cooking class</t>
+  </si>
+  <si>
+    <t>every other thursday</t>
+  </si>
+  <si>
+    <t>20-36</t>
+  </si>
+  <si>
+    <t>shavanderson@gmail.com</t>
+  </si>
+  <si>
+    <t>173.14.37.117</t>
+  </si>
+  <si>
+    <t>Don't Know or Not Applicable</t>
+  </si>
+  <si>
+    <t>Don't Know</t>
+  </si>
+  <si>
+    <t>Don’t Know or Not Applicable</t>
+  </si>
+  <si>
+    <t>dmaxwell@matrixhs.org</t>
   </si>
 </sst>
 </file>
@@ -3846,177 +3914,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:GD265"/>
+  <dimension ref="A1:GD271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="GD112" workbookViewId="0">
+      <selection activeCell="F267" sqref="F267"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="86.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="88.85546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="86.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="88.83203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="8" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="61.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="86.85546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="61.83203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="86.83203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="61.5" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="63" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="47.1640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="48.5" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="55" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="49" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="57" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="140.140625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="140.1640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="21" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="157" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="90" max="91" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="90" max="91" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="53.83203125" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="8" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="101" max="102" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="103" max="105" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="101" max="102" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="103" max="105" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="7.5" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="8" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="117" max="121" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="114" max="115" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="117" max="121" width="7.5" bestFit="1" customWidth="1"/>
     <col min="122" max="122" width="8" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="129" max="142" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="128" max="142" width="7.5" bestFit="1" customWidth="1"/>
     <col min="143" max="143" width="76" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="42.1640625" bestFit="1" customWidth="1"/>
     <col min="149" max="149" width="21" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="151" max="151" width="25" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="77.85546875" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="87.28515625" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="77.83203125" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="87.33203125" bestFit="1" customWidth="1"/>
     <col min="155" max="156" width="24" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="160" max="160" width="92" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="75.28515625" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="75.28515625" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="75.33203125" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="75.33203125" bestFit="1" customWidth="1"/>
     <col min="171" max="171" width="46" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="181" max="181" width="36" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="116.140625" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="116.1640625" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:186">
       <c r="A1" t="s">
         <v>946</v>
       </c>
@@ -4573,7 +4641,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="2" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:186">
       <c r="A2">
         <v>2471250719</v>
       </c>
@@ -4695,7 +4763,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:186">
       <c r="A3">
         <v>2469516319</v>
       </c>
@@ -4826,7 +4894,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:186">
       <c r="A4">
         <v>2469336225</v>
       </c>
@@ -4945,7 +5013,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:186">
       <c r="A5">
         <v>2469133536</v>
       </c>
@@ -5070,7 +5138,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:186">
       <c r="A6">
         <v>2467479997</v>
       </c>
@@ -5258,7 +5326,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:186">
       <c r="A7">
         <v>2467294719</v>
       </c>
@@ -5413,7 +5481,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:186">
       <c r="A8">
         <v>2463743029</v>
       </c>
@@ -5553,7 +5621,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:186">
       <c r="A9">
         <v>2463590408</v>
       </c>
@@ -5699,7 +5767,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:186">
       <c r="A10">
         <v>2463367676</v>
       </c>
@@ -5812,7 +5880,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:186">
       <c r="A11">
         <v>2463322280</v>
       </c>
@@ -5931,7 +5999,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:186">
       <c r="A12">
         <v>2456050445</v>
       </c>
@@ -6089,7 +6157,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:186">
       <c r="A13">
         <v>2454454154</v>
       </c>
@@ -6211,7 +6279,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:186">
       <c r="A14">
         <v>2440248593</v>
       </c>
@@ -6327,7 +6395,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:186">
       <c r="A15">
         <v>2440217561</v>
       </c>
@@ -6461,7 +6529,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:186">
       <c r="A16">
         <v>2440213463</v>
       </c>
@@ -6580,7 +6648,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:186">
       <c r="A17">
         <v>2438514521</v>
       </c>
@@ -6690,7 +6758,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:186">
       <c r="A18">
         <v>2434700111</v>
       </c>
@@ -6812,7 +6880,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:186">
       <c r="A19">
         <v>2433205501</v>
       </c>
@@ -6961,7 +7029,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:186">
       <c r="A20">
         <v>2433063198</v>
       </c>
@@ -7134,7 +7202,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:186">
       <c r="A21">
         <v>2432854178</v>
       </c>
@@ -7271,7 +7339,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:186">
       <c r="A22">
         <v>2432732553</v>
       </c>
@@ -7405,7 +7473,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:186">
       <c r="A23">
         <v>2427097752</v>
       </c>
@@ -7530,7 +7598,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:186">
       <c r="A24">
         <v>2424884656</v>
       </c>
@@ -7652,7 +7720,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:186">
       <c r="A25">
         <v>2423585035</v>
       </c>
@@ -7774,7 +7842,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:186">
       <c r="A26">
         <v>2423431212</v>
       </c>
@@ -7899,7 +7967,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:186">
       <c r="A27">
         <v>2421823553</v>
       </c>
@@ -8060,7 +8128,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:186">
       <c r="A28">
         <v>2421811377</v>
       </c>
@@ -8221,7 +8289,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:186">
       <c r="A29">
         <v>2421803623</v>
       </c>
@@ -8382,7 +8450,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:186">
       <c r="A30">
         <v>2421682506</v>
       </c>
@@ -8534,7 +8602,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:186">
       <c r="A31">
         <v>2415126191</v>
       </c>
@@ -8665,7 +8733,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:186">
       <c r="A32">
         <v>2414003014</v>
       </c>
@@ -8805,7 +8873,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:186">
       <c r="A33">
         <v>2413847571</v>
       </c>
@@ -8930,7 +8998,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:186">
       <c r="A34">
         <v>2412219235</v>
       </c>
@@ -9049,7 +9117,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:186">
       <c r="A35">
         <v>2409661759</v>
       </c>
@@ -9219,7 +9287,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:186">
       <c r="A36">
         <v>2409556678</v>
       </c>
@@ -9344,7 +9412,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="37" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:186">
       <c r="A37">
         <v>2408414976</v>
       </c>
@@ -9460,7 +9528,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:186">
       <c r="A38">
         <v>2408217659</v>
       </c>
@@ -9573,7 +9641,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:186">
       <c r="A39">
         <v>2407203053</v>
       </c>
@@ -9698,7 +9766,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="40" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:186">
       <c r="A40">
         <v>2403126392</v>
       </c>
@@ -9838,7 +9906,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:186">
       <c r="A41">
         <v>2395266953</v>
       </c>
@@ -9990,7 +10058,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:186">
       <c r="A42">
         <v>2395157284</v>
       </c>
@@ -10133,7 +10201,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:186">
       <c r="A43">
         <v>2388718195</v>
       </c>
@@ -10267,7 +10335,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="44" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:186">
       <c r="A44">
         <v>2377692305</v>
       </c>
@@ -10392,7 +10460,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:186">
       <c r="A45">
         <v>2375687326</v>
       </c>
@@ -10535,7 +10603,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="46" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:186">
       <c r="A46">
         <v>2375624566</v>
       </c>
@@ -10663,7 +10731,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:186">
       <c r="A47">
         <v>2373571929</v>
       </c>
@@ -10782,7 +10850,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="48" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:186">
       <c r="A48">
         <v>2373486746</v>
       </c>
@@ -10913,7 +10981,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:186">
       <c r="A49">
         <v>2363348786</v>
       </c>
@@ -11047,7 +11115,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="50" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:186">
       <c r="A50">
         <v>2363075118</v>
       </c>
@@ -11172,7 +11240,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="51" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:186">
       <c r="A51">
         <v>2360389466</v>
       </c>
@@ -11294,7 +11362,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:186">
       <c r="A52">
         <v>2346801456</v>
       </c>
@@ -11410,7 +11478,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="53" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:186">
       <c r="A53">
         <v>2341989590</v>
       </c>
@@ -11544,7 +11612,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:186">
       <c r="A54">
         <v>2341915587</v>
       </c>
@@ -11666,7 +11734,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="55" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:186">
       <c r="A55">
         <v>2341691935</v>
       </c>
@@ -11788,7 +11856,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:186">
       <c r="A56">
         <v>2339725864</v>
       </c>
@@ -11952,7 +12020,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="57" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:186">
       <c r="A57">
         <v>2337686970</v>
       </c>
@@ -12074,7 +12142,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:186">
       <c r="A58">
         <v>2337641473</v>
       </c>
@@ -12223,7 +12291,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="59" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:186">
       <c r="A59">
         <v>2334466302</v>
       </c>
@@ -12342,7 +12410,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="60" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:186">
       <c r="A60">
         <v>2332665797</v>
       </c>
@@ -12503,7 +12571,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="61" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:186">
       <c r="A61">
         <v>2332635263</v>
       </c>
@@ -12667,7 +12735,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="62" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:186">
       <c r="A62">
         <v>2332470297</v>
       </c>
@@ -12789,7 +12857,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="63" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:186">
       <c r="A63">
         <v>2332035068</v>
       </c>
@@ -12911,7 +12979,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="64" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:186">
       <c r="A64">
         <v>2328396920</v>
       </c>
@@ -13027,7 +13095,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="65" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:186">
       <c r="A65">
         <v>2327984905</v>
       </c>
@@ -13155,7 +13223,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="66" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:186">
       <c r="A66">
         <v>2327890373</v>
       </c>
@@ -13271,7 +13339,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="67" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:186">
       <c r="A67">
         <v>2325902717</v>
       </c>
@@ -13405,7 +13473,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="68" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:186">
       <c r="A68">
         <v>2322175341</v>
       </c>
@@ -13533,7 +13601,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:186">
       <c r="A69">
         <v>2320634024</v>
       </c>
@@ -13673,7 +13741,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:186">
       <c r="A70">
         <v>2320599669</v>
       </c>
@@ -13801,7 +13869,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:186">
       <c r="A71">
         <v>2320266401</v>
       </c>
@@ -13920,7 +13988,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="72" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:186">
       <c r="A72">
         <v>2319932283</v>
       </c>
@@ -14042,7 +14110,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="73" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:186">
       <c r="A73">
         <v>2318365106</v>
       </c>
@@ -14203,7 +14271,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="74" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:186">
       <c r="A74">
         <v>2318088374</v>
       </c>
@@ -14346,7 +14414,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:186">
       <c r="A75">
         <v>2315991402</v>
       </c>
@@ -14477,7 +14545,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="76" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:186">
       <c r="A76">
         <v>2315853195</v>
       </c>
@@ -14647,7 +14715,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="77" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:186">
       <c r="A77">
         <v>2314620019</v>
       </c>
@@ -14784,7 +14852,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="78" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:186">
       <c r="A78">
         <v>2314366557</v>
       </c>
@@ -14918,7 +14986,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:186">
       <c r="A79">
         <v>2314314542</v>
       </c>
@@ -15103,7 +15171,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="80" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:186">
       <c r="A80">
         <v>2308784678</v>
       </c>
@@ -15270,7 +15338,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="81" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:186">
       <c r="A81">
         <v>2308700176</v>
       </c>
@@ -15398,7 +15466,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:186">
       <c r="A82">
         <v>2308678216</v>
       </c>
@@ -15523,7 +15591,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:186">
       <c r="A83">
         <v>2308428983</v>
       </c>
@@ -15684,7 +15752,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="84" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:186">
       <c r="A84">
         <v>2306169535</v>
       </c>
@@ -15821,7 +15889,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="85" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:186">
       <c r="A85">
         <v>2303769304</v>
       </c>
@@ -15952,7 +16020,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="86" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:186">
       <c r="A86">
         <v>2303546789</v>
       </c>
@@ -16113,7 +16181,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="87" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:186">
       <c r="A87">
         <v>2303516677</v>
       </c>
@@ -16238,7 +16306,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:186">
       <c r="A88">
         <v>2303440095</v>
       </c>
@@ -16363,7 +16431,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="89" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:186">
       <c r="A89">
         <v>2303080186</v>
       </c>
@@ -16548,7 +16616,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="90" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:186">
       <c r="A90">
         <v>2301454663</v>
       </c>
@@ -16646,7 +16714,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="91" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:186">
       <c r="A91">
         <v>2301340656</v>
       </c>
@@ -16780,7 +16848,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="92" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:186">
       <c r="A92">
         <v>2286926116</v>
       </c>
@@ -16953,7 +17021,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="93" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:186">
       <c r="A93">
         <v>2284670440</v>
       </c>
@@ -17084,7 +17152,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:186">
       <c r="A94">
         <v>2272957044</v>
       </c>
@@ -17218,7 +17286,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:186">
       <c r="A95">
         <v>2270411271</v>
       </c>
@@ -17373,7 +17441,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:186">
       <c r="A96">
         <v>2267882795</v>
       </c>
@@ -17522,7 +17590,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="97" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:186">
       <c r="A97">
         <v>2267730276</v>
       </c>
@@ -17656,7 +17724,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="98" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:186">
       <c r="A98">
         <v>2267683817</v>
       </c>
@@ -17793,7 +17861,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="99" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:186">
       <c r="A99">
         <v>2267481571</v>
       </c>
@@ -17912,7 +17980,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="100" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:186">
       <c r="A100">
         <v>2267455986</v>
       </c>
@@ -18046,7 +18114,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="101" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:186">
       <c r="A101">
         <v>2267325657</v>
       </c>
@@ -18222,7 +18290,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:186">
       <c r="A102">
         <v>2263769721</v>
       </c>
@@ -18404,7 +18472,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="103" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:186">
       <c r="A103">
         <v>2263684588</v>
       </c>
@@ -18553,7 +18621,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="104" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:186">
       <c r="A104">
         <v>2263654231</v>
       </c>
@@ -18681,7 +18749,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="105" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:186">
       <c r="A105">
         <v>2263570923</v>
       </c>
@@ -18830,7 +18898,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:186">
       <c r="A106">
         <v>2263476041</v>
       </c>
@@ -18949,7 +19017,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="107" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:186">
       <c r="A107">
         <v>2263261134</v>
       </c>
@@ -19080,7 +19148,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="108" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:186">
       <c r="A108">
         <v>2263194807</v>
       </c>
@@ -19202,7 +19270,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="109" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:186">
       <c r="A109">
         <v>2263153603</v>
       </c>
@@ -19342,7 +19410,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="110" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:186">
       <c r="A110">
         <v>2261678590</v>
       </c>
@@ -19440,7 +19508,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:186">
       <c r="A111">
         <v>2260892260</v>
       </c>
@@ -19571,7 +19639,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="112" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:186">
       <c r="A112">
         <v>2206780211</v>
       </c>
@@ -19681,7 +19749,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:186">
       <c r="A113">
         <v>2205519441</v>
       </c>
@@ -19809,7 +19877,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="114" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:186">
       <c r="A114">
         <v>2205401177</v>
       </c>
@@ -19976,7 +20044,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="115" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:186">
       <c r="A115">
         <v>2205374374</v>
       </c>
@@ -20176,7 +20244,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="116" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:186">
       <c r="A116">
         <v>2205370624</v>
       </c>
@@ -20352,7 +20420,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="117" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:186">
       <c r="A117">
         <v>2205316996</v>
       </c>
@@ -20537,7 +20605,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="118" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:186">
       <c r="A118">
         <v>2205282255</v>
       </c>
@@ -20662,7 +20730,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="119" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:186">
       <c r="A119">
         <v>2199048395</v>
       </c>
@@ -20781,7 +20849,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="120" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:186">
       <c r="A120">
         <v>2198742262</v>
       </c>
@@ -20909,7 +20977,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="121" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:186">
       <c r="A121">
         <v>2197763561</v>
       </c>
@@ -21055,7 +21123,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:186">
       <c r="A122">
         <v>2197688442</v>
       </c>
@@ -21210,7 +21278,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="123" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:186">
       <c r="A123">
         <v>2197340840</v>
       </c>
@@ -21344,7 +21412,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="124" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:186">
       <c r="A124">
         <v>2196658206</v>
       </c>
@@ -21469,7 +21537,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="125" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:186">
       <c r="A125">
         <v>2185245675</v>
       </c>
@@ -21591,7 +21659,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="126" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:186">
       <c r="A126">
         <v>2184699579</v>
       </c>
@@ -21749,7 +21817,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="127" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:186">
       <c r="A127">
         <v>2184592061</v>
       </c>
@@ -21880,7 +21948,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="128" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:186">
       <c r="A128">
         <v>2184384587</v>
       </c>
@@ -22047,7 +22115,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="129" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:186">
       <c r="A129">
         <v>2183433915</v>
       </c>
@@ -22169,7 +22237,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="130" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:186">
       <c r="A130">
         <v>2183369260</v>
       </c>
@@ -22285,7 +22353,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="131" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:186">
       <c r="A131">
         <v>2183335959</v>
       </c>
@@ -22419,7 +22487,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="132" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:186">
       <c r="A132">
         <v>2181936879</v>
       </c>
@@ -22595,7 +22663,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="133" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:186">
       <c r="A133">
         <v>2181816797</v>
       </c>
@@ -22732,7 +22800,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="134" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:186">
       <c r="A134">
         <v>2177046154</v>
       </c>
@@ -22854,7 +22922,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="135" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:186">
       <c r="A135">
         <v>2176994731</v>
       </c>
@@ -23021,7 +23089,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="136" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:186">
       <c r="A136">
         <v>2168154400</v>
       </c>
@@ -23146,7 +23214,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="137" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:186">
       <c r="A137">
         <v>2168036574</v>
       </c>
@@ -23295,7 +23363,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="138" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:186">
       <c r="A138">
         <v>2167975292</v>
       </c>
@@ -23432,7 +23500,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="139" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:186">
       <c r="A139">
         <v>2167775107</v>
       </c>
@@ -23596,7 +23664,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="140" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:186">
       <c r="A140">
         <v>2167708933</v>
       </c>
@@ -23739,7 +23807,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="141" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:186">
       <c r="A141">
         <v>2166296385</v>
       </c>
@@ -23915,7 +23983,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="142" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:186">
       <c r="A142">
         <v>2166174651</v>
       </c>
@@ -24061,7 +24129,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="143" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:186">
       <c r="A143">
         <v>2166017829</v>
       </c>
@@ -24234,7 +24302,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="144" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:186">
       <c r="A144">
         <v>2165927663</v>
       </c>
@@ -24377,7 +24445,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="145" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:186">
       <c r="A145">
         <v>2165886119</v>
       </c>
@@ -24532,7 +24600,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="146" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:186">
       <c r="A146">
         <v>2165853194</v>
       </c>
@@ -24678,7 +24746,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="147" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:186">
       <c r="A147">
         <v>2164485496</v>
       </c>
@@ -24839,7 +24907,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="148" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:186">
       <c r="A148">
         <v>2164438383</v>
       </c>
@@ -24964,7 +25032,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="149" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:186">
       <c r="A149">
         <v>2164400437</v>
       </c>
@@ -25125,7 +25193,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="150" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:186">
       <c r="A150">
         <v>2164114357</v>
       </c>
@@ -25262,7 +25330,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="151" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:186">
       <c r="A151">
         <v>2164060911</v>
       </c>
@@ -25420,7 +25488,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="152" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:186">
       <c r="A152">
         <v>2163909335</v>
       </c>
@@ -25569,7 +25637,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="153" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:186">
       <c r="A153">
         <v>2162726066</v>
       </c>
@@ -25697,7 +25765,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="154" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:186">
       <c r="A154">
         <v>2162454232</v>
       </c>
@@ -25822,7 +25890,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="155" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:186">
       <c r="A155">
         <v>2161956578</v>
       </c>
@@ -25974,7 +26042,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="156" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:186">
       <c r="A156">
         <v>2161440521</v>
       </c>
@@ -26096,7 +26164,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="157" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:186">
       <c r="A157">
         <v>2091235854</v>
       </c>
@@ -26215,7 +26283,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="158" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:186">
       <c r="A158">
         <v>2091115804</v>
       </c>
@@ -26343,7 +26411,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="159" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:186">
       <c r="A159">
         <v>2090995036</v>
       </c>
@@ -26468,7 +26536,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="160" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:186">
       <c r="A160">
         <v>2090969339</v>
       </c>
@@ -26587,7 +26655,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="161" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:186">
       <c r="A161">
         <v>2090835714</v>
       </c>
@@ -26769,7 +26837,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="162" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:186">
       <c r="A162">
         <v>2090795864</v>
       </c>
@@ -26888,7 +26956,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="163" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:186">
       <c r="A163">
         <v>2055290785</v>
       </c>
@@ -27010,7 +27078,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="164" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:186">
       <c r="A164">
         <v>2054981893</v>
       </c>
@@ -27165,7 +27233,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="165" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:186">
       <c r="A165">
         <v>2054765888</v>
       </c>
@@ -27305,7 +27373,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="166" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:186">
       <c r="A166">
         <v>2054702671</v>
       </c>
@@ -27487,7 +27555,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="167" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:186">
       <c r="A167">
         <v>2054564913</v>
       </c>
@@ -27606,7 +27674,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="168" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:186">
       <c r="A168">
         <v>2054454257</v>
       </c>
@@ -27725,7 +27793,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="169" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:186">
       <c r="A169">
         <v>2054402979</v>
       </c>
@@ -27832,7 +27900,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="170" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:186">
       <c r="A170">
         <v>2054367530</v>
       </c>
@@ -27951,7 +28019,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="171" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:186">
       <c r="A171">
         <v>2053279337</v>
       </c>
@@ -28076,7 +28144,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="172" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:186">
       <c r="A172">
         <v>2053124035</v>
       </c>
@@ -28204,7 +28272,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="173" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:186">
       <c r="A173">
         <v>2025149251</v>
       </c>
@@ -28329,7 +28397,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="174" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:186">
       <c r="A174">
         <v>2023455635</v>
       </c>
@@ -28457,7 +28525,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="175" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:186">
       <c r="A175">
         <v>2023353021</v>
       </c>
@@ -28570,7 +28638,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="176" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:186">
       <c r="A176">
         <v>2023209821</v>
       </c>
@@ -28728,7 +28796,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="177" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:186">
       <c r="A177">
         <v>2023160569</v>
       </c>
@@ -28850,7 +28918,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="178" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:186">
       <c r="A178">
         <v>2023075598</v>
       </c>
@@ -28987,7 +29055,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="179" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:186">
       <c r="A179">
         <v>2023040361</v>
       </c>
@@ -29145,7 +29213,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="180" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:186">
       <c r="A180">
         <v>2018403959</v>
       </c>
@@ -29288,7 +29356,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="181" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:186">
       <c r="A181">
         <v>2017705995</v>
       </c>
@@ -29443,7 +29511,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="182" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:186">
       <c r="A182">
         <v>2009719159</v>
       </c>
@@ -29559,7 +29627,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="183" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:186">
       <c r="A183">
         <v>2009682123</v>
       </c>
@@ -29693,7 +29761,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="184" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:186">
       <c r="A184">
         <v>2009601550</v>
       </c>
@@ -29854,7 +29922,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="185" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:186">
       <c r="A185">
         <v>2009563848</v>
       </c>
@@ -29979,7 +30047,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="186" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:186">
       <c r="A186">
         <v>2009369734</v>
       </c>
@@ -30116,7 +30184,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="187" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:186">
       <c r="A187">
         <v>2009319419</v>
       </c>
@@ -30289,7 +30357,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="188" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:186">
       <c r="A188">
         <v>2009286591</v>
       </c>
@@ -30399,7 +30467,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="189" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:186">
       <c r="A189">
         <v>2008213021</v>
       </c>
@@ -30545,7 +30613,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="190" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:186">
       <c r="A190">
         <v>2008038202</v>
       </c>
@@ -30697,7 +30765,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="191" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:186">
       <c r="A191">
         <v>1998686915</v>
       </c>
@@ -30828,7 +30896,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="192" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:186">
       <c r="A192">
         <v>1998544643</v>
       </c>
@@ -30968,7 +31036,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="193" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:186">
       <c r="A193">
         <v>1998459722</v>
       </c>
@@ -31090,7 +31158,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="194" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:186">
       <c r="A194">
         <v>1998027646</v>
       </c>
@@ -31239,7 +31307,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="195" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:186">
       <c r="A195">
         <v>1997916282</v>
       </c>
@@ -31355,7 +31423,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="196" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:186">
       <c r="A196">
         <v>1997893577</v>
       </c>
@@ -31489,7 +31557,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="197" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:186">
       <c r="A197">
         <v>1996419107</v>
       </c>
@@ -31611,7 +31679,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="198" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:186">
       <c r="A198">
         <v>1996384228</v>
       </c>
@@ -31757,7 +31825,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="199" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:186">
       <c r="A199">
         <v>1996332249</v>
       </c>
@@ -31957,7 +32025,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="200" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:186">
       <c r="A200">
         <v>1996135614</v>
       </c>
@@ -32088,7 +32156,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="201" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:186">
       <c r="A201">
         <v>1996107745</v>
       </c>
@@ -32222,7 +32290,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="202" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:186">
       <c r="A202">
         <v>1996038514</v>
       </c>
@@ -32422,7 +32490,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="203" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:186">
       <c r="A203">
         <v>1995949584</v>
       </c>
@@ -32565,7 +32633,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="204" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:186">
       <c r="A204">
         <v>1994958964</v>
       </c>
@@ -32699,7 +32767,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="205" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:186">
       <c r="A205">
         <v>1994794566</v>
       </c>
@@ -32845,7 +32913,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="206" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:186">
       <c r="A206">
         <v>1994750419</v>
       </c>
@@ -32982,7 +33050,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="207" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:186">
       <c r="A207">
         <v>1994568026</v>
       </c>
@@ -33113,7 +33181,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="208" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:186">
       <c r="A208">
         <v>1994499618</v>
       </c>
@@ -33253,7 +33321,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="209" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:186">
       <c r="A209">
         <v>1994456193</v>
       </c>
@@ -33411,7 +33479,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="210" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:186">
       <c r="A210">
         <v>1994409383</v>
       </c>
@@ -33539,7 +33607,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="211" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:186">
       <c r="A211">
         <v>1993456152</v>
       </c>
@@ -33670,7 +33738,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="212" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:186">
       <c r="A212">
         <v>1993424444</v>
       </c>
@@ -33801,7 +33869,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="213" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:186">
       <c r="A213">
         <v>1993351934</v>
       </c>
@@ -33950,7 +34018,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="214" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:186">
       <c r="A214">
         <v>1993167802</v>
       </c>
@@ -34069,7 +34137,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="215" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:186">
       <c r="A215">
         <v>1993125392</v>
       </c>
@@ -34227,7 +34295,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="216" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:186">
       <c r="A216">
         <v>1985541655</v>
       </c>
@@ -34346,7 +34414,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="217" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:186">
       <c r="A217">
         <v>1985463659</v>
       </c>
@@ -34462,7 +34530,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="218" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:186">
       <c r="A218">
         <v>1985361090</v>
       </c>
@@ -34593,7 +34661,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="219" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:186">
       <c r="A219">
         <v>1985317150</v>
       </c>
@@ -34745,7 +34813,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="220" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:186">
       <c r="A220">
         <v>1985153959</v>
       </c>
@@ -34918,7 +34986,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="221" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:186">
       <c r="A221">
         <v>1985087619</v>
       </c>
@@ -35067,7 +35135,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="222" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:186">
       <c r="A222">
         <v>1985063273</v>
       </c>
@@ -35222,7 +35290,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="223" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:186">
       <c r="A223">
         <v>1985036353</v>
       </c>
@@ -35380,7 +35448,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="224" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:186">
       <c r="A224">
         <v>1984022837</v>
       </c>
@@ -35508,7 +35576,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="225" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:186">
       <c r="A225">
         <v>1983883993</v>
       </c>
@@ -35663,7 +35731,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="226" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:186">
       <c r="A226">
         <v>1983693482</v>
       </c>
@@ -35821,7 +35889,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="227" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:186">
       <c r="A227">
         <v>1983555565</v>
       </c>
@@ -35937,7 +36005,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="228" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:186">
       <c r="A228">
         <v>1983463537</v>
       </c>
@@ -36074,7 +36142,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="229" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:186">
       <c r="A229">
         <v>1983427313</v>
       </c>
@@ -36226,7 +36294,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="230" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:186">
       <c r="A230">
         <v>1983394930</v>
       </c>
@@ -36342,7 +36410,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="231" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:186">
       <c r="A231">
         <v>1982340777</v>
       </c>
@@ -36473,7 +36541,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="232" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:186">
       <c r="A232">
         <v>1982285769</v>
       </c>
@@ -36598,7 +36666,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="233" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:186">
       <c r="A233">
         <v>1982134743</v>
       </c>
@@ -36753,7 +36821,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="234" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:186">
       <c r="A234">
         <v>1981941794</v>
       </c>
@@ -36881,7 +36949,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="235" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:186">
       <c r="A235">
         <v>1981858431</v>
       </c>
@@ -37015,7 +37083,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="236" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:186">
       <c r="A236">
         <v>1981814454</v>
       </c>
@@ -37164,7 +37232,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="237" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:186">
       <c r="A237">
         <v>1973488304</v>
       </c>
@@ -37313,7 +37381,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="238" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:186">
       <c r="A238">
         <v>1973355766</v>
       </c>
@@ -37453,7 +37521,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="239" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:186">
       <c r="A239">
         <v>1973178101</v>
       </c>
@@ -37614,7 +37682,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="240" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:186">
       <c r="A240">
         <v>1973154094</v>
       </c>
@@ -37793,7 +37861,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="241" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:186">
       <c r="A241">
         <v>1972935293</v>
       </c>
@@ -37957,7 +38025,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="242" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:186">
       <c r="A242">
         <v>1972003192</v>
       </c>
@@ -38073,7 +38141,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="243" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:186">
       <c r="A243">
         <v>1971755179</v>
       </c>
@@ -38225,7 +38293,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="244" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:186">
       <c r="A244">
         <v>1971579483</v>
       </c>
@@ -38362,7 +38430,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="245" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:186">
       <c r="A245">
         <v>1965745987</v>
       </c>
@@ -38511,7 +38579,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="246" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:186">
       <c r="A246">
         <v>1965547419</v>
       </c>
@@ -38711,7 +38779,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="247" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:186">
       <c r="A247">
         <v>1965349668</v>
       </c>
@@ -38881,7 +38949,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="248" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:186">
       <c r="A248">
         <v>1964299237</v>
       </c>
@@ -39045,7 +39113,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="249" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:186">
       <c r="A249">
         <v>1964231296</v>
       </c>
@@ -39215,7 +39283,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="250" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:186">
       <c r="A250">
         <v>1964189950</v>
       </c>
@@ -39349,7 +39417,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="251" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:186">
       <c r="A251">
         <v>1964054576</v>
       </c>
@@ -39495,7 +39563,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="252" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:186">
       <c r="A252">
         <v>1960033418</v>
       </c>
@@ -39632,7 +39700,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="253" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:186">
       <c r="A253">
         <v>1959924312</v>
       </c>
@@ -39775,7 +39843,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="254" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:186">
       <c r="A254">
         <v>1959900712</v>
       </c>
@@ -39894,7 +39962,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="255" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:186">
       <c r="A255">
         <v>1959870437</v>
       </c>
@@ -40046,7 +40114,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="256" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:186">
       <c r="A256">
         <v>1958417372</v>
       </c>
@@ -40177,7 +40245,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="257" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:186">
       <c r="A257">
         <v>1958049712</v>
       </c>
@@ -40296,7 +40364,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="258" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:186">
       <c r="A258">
         <v>1957881853</v>
       </c>
@@ -40451,7 +40519,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="259" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:186">
       <c r="A259">
         <v>1956826675</v>
       </c>
@@ -40582,7 +40650,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="260" spans="1:186" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:186">
       <c r="A260">
         <v>1956738123</v>
       </c>
@@ -40770,7 +40838,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="261" spans="1:186" ht="15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:186" ht="14">
       <c r="A261">
         <v>2424981246</v>
       </c>
@@ -40903,7 +40971,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="262" spans="1:186" ht="15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:186" ht="14">
       <c r="A262">
         <v>2308616192</v>
       </c>
@@ -41084,7 +41152,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="263" spans="1:186" ht="15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:186" ht="14">
       <c r="A263">
         <v>2165703170</v>
       </c>
@@ -41301,7 +41369,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="264" spans="1:186" ht="15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:186" ht="14">
       <c r="A264">
         <v>2152285237</v>
       </c>
@@ -41491,7 +41559,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="265" spans="1:186" ht="15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:186" ht="14">
       <c r="A265">
         <v>2017579664</v>
       </c>
@@ -41651,10 +41719,813 @@
         <v>1157</v>
       </c>
     </row>
+    <row r="266" spans="1:186">
+      <c r="A266">
+        <v>2613917380</v>
+      </c>
+      <c r="B266">
+        <v>29312106</v>
+      </c>
+      <c r="C266" s="1">
+        <v>41403.650439814817</v>
+      </c>
+      <c r="D266" s="1">
+        <v>41403.688043981485</v>
+      </c>
+      <c r="E266" t="s">
+        <v>52</v>
+      </c>
+      <c r="K266">
+        <v>199</v>
+      </c>
+      <c r="L266" t="s">
+        <v>53</v>
+      </c>
+      <c r="N266" t="s">
+        <v>54</v>
+      </c>
+      <c r="P266" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q266" t="s">
+        <v>56</v>
+      </c>
+      <c r="X266" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y266" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH266" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN266" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO266" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP266" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ266" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS266" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AV266" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD266" t="s">
+        <v>56</v>
+      </c>
+      <c r="BS266" t="s">
+        <v>55</v>
+      </c>
+      <c r="CB266" t="s">
+        <v>5</v>
+      </c>
+      <c r="CO266" t="s">
+        <v>63</v>
+      </c>
+      <c r="DG266" t="s">
+        <v>64</v>
+      </c>
+      <c r="EM266" t="s">
+        <v>107</v>
+      </c>
+      <c r="EN266" t="s">
+        <v>56</v>
+      </c>
+      <c r="EU266" t="s">
+        <v>1160</v>
+      </c>
+      <c r="EX266" t="s">
+        <v>60</v>
+      </c>
+      <c r="EZ266" t="s">
+        <v>35</v>
+      </c>
+      <c r="FA266" t="s">
+        <v>36</v>
+      </c>
+      <c r="FB266" t="s">
+        <v>37</v>
+      </c>
+      <c r="FC266" t="s">
+        <v>38</v>
+      </c>
+      <c r="FH266" t="s">
+        <v>42</v>
+      </c>
+      <c r="FJ266" t="s">
+        <v>44</v>
+      </c>
+      <c r="FN266" t="s">
+        <v>42</v>
+      </c>
+      <c r="FP266" t="s">
+        <v>46</v>
+      </c>
+      <c r="FU266" t="s">
+        <v>1161</v>
+      </c>
+      <c r="FV266" t="s">
+        <v>46</v>
+      </c>
+      <c r="FX266" t="s">
+        <v>46</v>
+      </c>
+      <c r="GB266" t="s">
+        <v>61</v>
+      </c>
+      <c r="GC266" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="267" spans="1:186">
+      <c r="A267">
+        <v>2612135876</v>
+      </c>
+      <c r="B267">
+        <v>29312106</v>
+      </c>
+      <c r="C267" s="1">
+        <v>41402.687881944446</v>
+      </c>
+      <c r="D267" s="1">
+        <v>41402.787731481483</v>
+      </c>
+      <c r="E267" t="s">
+        <v>52</v>
+      </c>
+      <c r="K267">
+        <v>103</v>
+      </c>
+      <c r="L267" t="s">
+        <v>53</v>
+      </c>
+      <c r="N267" t="s">
+        <v>54</v>
+      </c>
+      <c r="P267" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q267" t="s">
+        <v>56</v>
+      </c>
+      <c r="X267" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y267" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH267" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO267" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP267" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ267" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS267" t="s">
+        <v>1163</v>
+      </c>
+      <c r="BB267" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD267" t="s">
+        <v>55</v>
+      </c>
+      <c r="BK267" t="s">
+        <v>29</v>
+      </c>
+      <c r="BM267" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS267" t="s">
+        <v>55</v>
+      </c>
+      <c r="CB267" t="s">
+        <v>5</v>
+      </c>
+      <c r="CP267" t="s">
+        <v>77</v>
+      </c>
+      <c r="CQ267" t="s">
+        <v>73</v>
+      </c>
+      <c r="CR267" t="s">
+        <v>58</v>
+      </c>
+      <c r="CS267" t="s">
+        <v>64</v>
+      </c>
+      <c r="CT267" t="s">
+        <v>78</v>
+      </c>
+      <c r="DD267" t="s">
+        <v>77</v>
+      </c>
+      <c r="DE267" t="s">
+        <v>73</v>
+      </c>
+      <c r="DF267" t="s">
+        <v>58</v>
+      </c>
+      <c r="DG267" t="s">
+        <v>64</v>
+      </c>
+      <c r="DH267" t="s">
+        <v>78</v>
+      </c>
+      <c r="EN267" t="s">
+        <v>55</v>
+      </c>
+      <c r="EO267">
+        <v>1</v>
+      </c>
+      <c r="ER267">
+        <v>1</v>
+      </c>
+      <c r="EU267">
+        <v>0</v>
+      </c>
+      <c r="EX267" t="s">
+        <v>60</v>
+      </c>
+      <c r="EZ267" t="s">
+        <v>35</v>
+      </c>
+      <c r="FA267" t="s">
+        <v>36</v>
+      </c>
+      <c r="FD267" t="s">
+        <v>39</v>
+      </c>
+      <c r="FH267" t="s">
+        <v>42</v>
+      </c>
+      <c r="FJ267" t="s">
+        <v>44</v>
+      </c>
+      <c r="FN267" t="s">
+        <v>44</v>
+      </c>
+      <c r="FR267" t="s">
+        <v>48</v>
+      </c>
+      <c r="FS267" t="s">
+        <v>49</v>
+      </c>
+      <c r="FV267" t="s">
+        <v>49</v>
+      </c>
+      <c r="FZ267" t="s">
+        <v>51</v>
+      </c>
+      <c r="GB267" t="s">
+        <v>61</v>
+      </c>
+      <c r="GC267" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="268" spans="1:186">
+      <c r="A268">
+        <v>2611718467</v>
+      </c>
+      <c r="B268">
+        <v>29312106</v>
+      </c>
+      <c r="C268" s="1">
+        <v>41402.649675925924</v>
+      </c>
+      <c r="D268" s="1">
+        <v>41402.668182870373</v>
+      </c>
+      <c r="E268" t="s">
+        <v>52</v>
+      </c>
+      <c r="K268">
+        <v>258</v>
+      </c>
+      <c r="L268" t="s">
+        <v>53</v>
+      </c>
+      <c r="N268" t="s">
+        <v>54</v>
+      </c>
+      <c r="P268" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q268" t="s">
+        <v>56</v>
+      </c>
+      <c r="X268" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y268" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH268" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO268" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP268" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ268" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS268" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV268" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD268" t="s">
+        <v>55</v>
+      </c>
+      <c r="BM268" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS268" t="s">
+        <v>55</v>
+      </c>
+      <c r="CB268" t="s">
+        <v>5</v>
+      </c>
+      <c r="CS268" t="s">
+        <v>64</v>
+      </c>
+      <c r="DG268" t="s">
+        <v>64</v>
+      </c>
+      <c r="EM268" t="s">
+        <v>107</v>
+      </c>
+      <c r="EN268" t="s">
+        <v>56</v>
+      </c>
+      <c r="EU268" t="s">
+        <v>1165</v>
+      </c>
+      <c r="EX268" t="s">
+        <v>60</v>
+      </c>
+      <c r="EZ268" t="s">
+        <v>35</v>
+      </c>
+      <c r="FA268" t="s">
+        <v>36</v>
+      </c>
+      <c r="FC268" t="s">
+        <v>38</v>
+      </c>
+      <c r="FG268" t="s">
+        <v>41</v>
+      </c>
+      <c r="FH268" t="s">
+        <v>42</v>
+      </c>
+      <c r="FM268" t="s">
+        <v>65</v>
+      </c>
+      <c r="FO268" t="s">
+        <v>65</v>
+      </c>
+      <c r="FQ268" t="s">
+        <v>47</v>
+      </c>
+      <c r="FS268" t="s">
+        <v>49</v>
+      </c>
+      <c r="FV268" t="s">
+        <v>47</v>
+      </c>
+      <c r="FZ268" t="s">
+        <v>51</v>
+      </c>
+      <c r="GB268" t="s">
+        <v>61</v>
+      </c>
+      <c r="GD268" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="269" spans="1:186">
+      <c r="A269">
+        <v>2587411692</v>
+      </c>
+      <c r="B269">
+        <v>29312106</v>
+      </c>
+      <c r="C269" s="1">
+        <v>41388.748113425929</v>
+      </c>
+      <c r="D269" s="1">
+        <v>41388.796064814815</v>
+      </c>
+      <c r="E269" t="s">
+        <v>52</v>
+      </c>
+      <c r="K269">
+        <v>242</v>
+      </c>
+      <c r="L269" t="s">
+        <v>53</v>
+      </c>
+      <c r="N269" t="s">
+        <v>54</v>
+      </c>
+      <c r="P269" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q269" t="s">
+        <v>56</v>
+      </c>
+      <c r="X269" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y269" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH269" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN269" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO269" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP269" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ269" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS269" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AV269" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD269" t="s">
+        <v>55</v>
+      </c>
+      <c r="BM269" t="s">
+        <v>31</v>
+      </c>
+      <c r="BR269" t="s">
+        <v>1167</v>
+      </c>
+      <c r="BS269" t="s">
+        <v>55</v>
+      </c>
+      <c r="CB269" t="s">
+        <v>5</v>
+      </c>
+      <c r="CO269" t="s">
+        <v>63</v>
+      </c>
+      <c r="DF269" t="s">
+        <v>58</v>
+      </c>
+      <c r="EM269" t="s">
+        <v>107</v>
+      </c>
+      <c r="EN269" t="s">
+        <v>56</v>
+      </c>
+      <c r="EV269" t="s">
+        <v>1168</v>
+      </c>
+      <c r="EX269" t="s">
+        <v>60</v>
+      </c>
+      <c r="EZ269" t="s">
+        <v>35</v>
+      </c>
+      <c r="FA269" t="s">
+        <v>36</v>
+      </c>
+      <c r="FB269" t="s">
+        <v>37</v>
+      </c>
+      <c r="FC269" t="s">
+        <v>38</v>
+      </c>
+      <c r="FD269" t="s">
+        <v>39</v>
+      </c>
+      <c r="FH269" t="s">
+        <v>42</v>
+      </c>
+      <c r="FN269" t="s">
+        <v>42</v>
+      </c>
+      <c r="FP269" t="s">
+        <v>46</v>
+      </c>
+      <c r="FV269" t="s">
+        <v>46</v>
+      </c>
+      <c r="FX269" t="s">
+        <v>46</v>
+      </c>
+      <c r="GB269" t="s">
+        <v>61</v>
+      </c>
+      <c r="GC269" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="270" spans="1:186">
+      <c r="A270">
+        <v>2587240373</v>
+      </c>
+      <c r="B270">
+        <v>29312106</v>
+      </c>
+      <c r="C270" s="1">
+        <v>41388.689629629633</v>
+      </c>
+      <c r="D270" s="1">
+        <v>41388.746180555558</v>
+      </c>
+      <c r="E270" t="s">
+        <v>52</v>
+      </c>
+      <c r="K270">
+        <v>129</v>
+      </c>
+      <c r="L270" t="s">
+        <v>53</v>
+      </c>
+      <c r="N270" t="s">
+        <v>54</v>
+      </c>
+      <c r="P270" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q270" t="s">
+        <v>56</v>
+      </c>
+      <c r="X270" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y270" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH270" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN270" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO270" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP270" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ270" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT270" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AV270" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD270" t="s">
+        <v>55</v>
+      </c>
+      <c r="BK270" t="s">
+        <v>29</v>
+      </c>
+      <c r="BR270" t="s">
+        <v>1171</v>
+      </c>
+      <c r="BS270" t="s">
+        <v>55</v>
+      </c>
+      <c r="CB270" t="s">
+        <v>5</v>
+      </c>
+      <c r="CO270" t="s">
+        <v>63</v>
+      </c>
+      <c r="CS270" t="s">
+        <v>64</v>
+      </c>
+      <c r="DG270" t="s">
+        <v>64</v>
+      </c>
+      <c r="EM270" t="s">
+        <v>1172</v>
+      </c>
+      <c r="EN270" t="s">
+        <v>56</v>
+      </c>
+      <c r="EV270" t="s">
+        <v>1173</v>
+      </c>
+      <c r="EX270" t="s">
+        <v>60</v>
+      </c>
+      <c r="EZ270" t="s">
+        <v>35</v>
+      </c>
+      <c r="FA270" t="s">
+        <v>36</v>
+      </c>
+      <c r="FB270" t="s">
+        <v>37</v>
+      </c>
+      <c r="FC270" t="s">
+        <v>38</v>
+      </c>
+      <c r="FD270" t="s">
+        <v>39</v>
+      </c>
+      <c r="FJ270" t="s">
+        <v>44</v>
+      </c>
+      <c r="FN270" t="s">
+        <v>44</v>
+      </c>
+      <c r="FP270" t="s">
+        <v>46</v>
+      </c>
+      <c r="FV270" t="s">
+        <v>46</v>
+      </c>
+      <c r="FX270" t="s">
+        <v>46</v>
+      </c>
+      <c r="GB270" t="s">
+        <v>61</v>
+      </c>
+      <c r="GC270" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="271" spans="1:186">
+      <c r="A271">
+        <v>2597670412</v>
+      </c>
+      <c r="B271">
+        <v>29399013</v>
+      </c>
+      <c r="C271" s="1">
+        <v>41394.731817129628</v>
+      </c>
+      <c r="D271" s="1">
+        <v>41394.740925925929</v>
+      </c>
+      <c r="F271" t="s">
+        <v>1175</v>
+      </c>
+      <c r="K271">
+        <v>294</v>
+      </c>
+      <c r="L271" t="s">
+        <v>55</v>
+      </c>
+      <c r="P271" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q271" t="s">
+        <v>56</v>
+      </c>
+      <c r="X271" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y271" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA271" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH271" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO271" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP271" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ271" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS271">
+        <v>1200</v>
+      </c>
+      <c r="AV271" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD271" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE271" t="s">
+        <v>23</v>
+      </c>
+      <c r="BF271" t="s">
+        <v>24</v>
+      </c>
+      <c r="BI271" t="s">
+        <v>27</v>
+      </c>
+      <c r="BJ271" t="s">
+        <v>28</v>
+      </c>
+      <c r="BK271" t="s">
+        <v>29</v>
+      </c>
+      <c r="BM271" t="s">
+        <v>31</v>
+      </c>
+      <c r="BN271" t="s">
+        <v>32</v>
+      </c>
+      <c r="BS271" t="s">
+        <v>1176</v>
+      </c>
+      <c r="BW271" t="s">
+        <v>1177</v>
+      </c>
+      <c r="CQ271" t="s">
+        <v>73</v>
+      </c>
+      <c r="EN271" t="s">
+        <v>55</v>
+      </c>
+      <c r="EO271">
+        <v>4</v>
+      </c>
+      <c r="ER271">
+        <v>0</v>
+      </c>
+      <c r="EU271">
+        <v>4</v>
+      </c>
+      <c r="EX271" t="s">
+        <v>70</v>
+      </c>
+      <c r="EZ271" t="s">
+        <v>35</v>
+      </c>
+      <c r="FA271" t="s">
+        <v>36</v>
+      </c>
+      <c r="FC271" t="s">
+        <v>38</v>
+      </c>
+      <c r="FD271" t="s">
+        <v>39</v>
+      </c>
+      <c r="FJ271" t="s">
+        <v>44</v>
+      </c>
+      <c r="FN271" t="s">
+        <v>44</v>
+      </c>
+      <c r="FS271" t="s">
+        <v>49</v>
+      </c>
+      <c r="FV271" t="s">
+        <v>49</v>
+      </c>
+      <c r="GA271" t="s">
+        <v>1178</v>
+      </c>
+      <c r="GB271" t="s">
+        <v>56</v>
+      </c>
+      <c r="GC271" t="s">
+        <v>1179</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>